--- a/data/xlsx/03022019.xlsx
+++ b/data/xlsx/03022019.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F622492-AB85-5544-9DFD-872EDA182DA1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795D98A2-8D4C-8549-AA06-B5A87434B2E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03022019" sheetId="1" r:id="rId1"/>
@@ -226,10 +226,6 @@
     <t>OBSCENE, THREAT, ANNOYING CALL</t>
   </si>
   <si>
-    <t>(FO-20-S) REPORTS A SUSPICIOUS CIRCUMSTANCE REGARDING A POSSIBLY STOLEN CELL PHONE, MLK.
-SUSPECT: MB, 60S, RED/WHITE JORDANS, HOMELESS TYPE.</t>
-  </si>
-  <si>
     <t>(FW-28-O) REPORTS BURGLARY VIA OPEN DOOR, 685 LIBERTY SHIP, LOSS: $150.</t>
   </si>
   <si>
@@ -255,6 +251,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>(FO-20-S) REPORTS A SUSPICIOUS CIRCUMSTANCE REGARDING A POSSIBLY STOLEN CELL PHONE, MLK. SUSPECT: MB, 60S, RED/WHITE JORDANS, HOMELESS TYPE.</t>
   </si>
 </sst>
 </file>
@@ -654,7 +653,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -683,10 +682,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -715,7 +714,7 @@
         <v>-122.25859699999999</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -741,7 +740,7 @@
         <v>-122.25967</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -793,7 +792,7 @@
         <v>-122.255144</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -810,7 +809,7 @@
         <v>19</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>37.869686999999999</v>
@@ -819,7 +818,7 @@
         <v>-122.265861</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -862,7 +861,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F8">
         <v>37.868845999999998</v>
@@ -871,7 +870,7 @@
         <v>-122.258337</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -919,7 +918,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="3" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -945,7 +944,7 @@
         <v>-122.30448</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -971,7 +970,7 @@
         <v>-122.255144</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -988,7 +987,7 @@
         <v>43</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>37.873480999999998</v>
@@ -997,7 +996,7 @@
         <v>-122.26791299999999</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1023,7 +1022,7 @@
         <v>-122.259337</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1049,7 +1048,7 @@
         <v>-122.248801</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1075,7 +1074,7 @@
         <v>-122.25843500000001</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1101,7 +1100,7 @@
         <v>-122.25843500000001</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1118,7 +1117,7 @@
         <v>59</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>37.873688000000001</v>
@@ -1127,7 +1126,7 @@
         <v>-122.257853</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/data/xlsx/03022019.xlsx
+++ b/data/xlsx/03022019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{795D98A2-8D4C-8549-AA06-B5A87434B2E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F85B9D-2D1A-4A4F-8420-22E63C9B77D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,6 +260,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="10"/>
@@ -311,7 +314,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,7 +656,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A2" sqref="A2:A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>

--- a/data/xlsx/03022019.xlsx
+++ b/data/xlsx/03022019.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/[s19] web dev/susa-data-viz/data/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelli/Desktop/SUSA/susa-data-viz/data/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F85B9D-2D1A-4A4F-8420-22E63C9B77D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D21A1C-F443-E440-9BBC-C693346D7A52}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="440" windowWidth="14860" windowHeight="17560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -261,7 +261,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -314,7 +314,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -918,8 +918,12 @@
       <c r="E10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="F10">
+        <v>37.869249000000003</v>
+      </c>
+      <c r="G10">
+        <v>-122.25967</v>
+      </c>
       <c r="H10" s="3" t="s">
         <v>77</v>
       </c>
